--- a/ModelTraining/Models/Ensemble/RandomForestRegressorBenchmark.xlsx
+++ b/ModelTraining/Models/Ensemble/RandomForestRegressorBenchmark.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -479,13 +479,13 @@
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>5.74725060391653</v>
+        <v>9.563969737553307</v>
       </c>
       <c r="F2" t="n">
-        <v>1.090089480876653</v>
+        <v>1.733275416061598</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6683264290136646</v>
+        <v>0.2315502023843321</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>5.719923871773111</v>
+        <v>9.572371048910323</v>
       </c>
       <c r="F3" t="n">
-        <v>1.090670906961916</v>
+        <v>1.732933490523181</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6699034534829331</v>
+        <v>0.2308751703433318</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>5.741516821674083</v>
+        <v>9.511271359837897</v>
       </c>
       <c r="F4" t="n">
-        <v>1.092772461941284</v>
+        <v>1.731058709006017</v>
       </c>
       <c r="G4" t="n">
-        <v>0.668657325326123</v>
+        <v>0.2357844334412406</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>5.590355477975892</v>
+        <v>9.775052123024182</v>
       </c>
       <c r="F5" t="n">
-        <v>1.072842441005553</v>
+        <v>1.735423216370861</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6773808395966344</v>
+        <v>0.214590067540072</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>5.61072037575584</v>
+        <v>9.718653014423852</v>
       </c>
       <c r="F6" t="n">
-        <v>1.079765880946888</v>
+        <v>1.740448094675088</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6762055822718809</v>
+        <v>0.2191216464533189</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>5.591471854325733</v>
+        <v>9.617042860501286</v>
       </c>
       <c r="F7" t="n">
-        <v>1.080238195149794</v>
+        <v>1.72825230287906</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6773164135682541</v>
+        <v>0.2272858611424243</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>5.695731249339285</v>
+        <v>9.927341565128671</v>
       </c>
       <c r="F8" t="n">
-        <v>1.130169968301392</v>
+        <v>1.765927858880759</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6712996086233898</v>
+        <v>0.2023538524353037</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>5.653652883169954</v>
+        <v>9.93508201371888</v>
       </c>
       <c r="F9" t="n">
-        <v>1.125216559487044</v>
+        <v>1.762363969788354</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6737279492214389</v>
+        <v>0.2017319196693262</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>5.62264217672564</v>
+        <v>9.781958098876542</v>
       </c>
       <c r="F10" t="n">
-        <v>1.122089041538</v>
+        <v>1.759687280446587</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6755175756800773</v>
+        <v>0.2140351833349028</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>5.702885363105469</v>
+        <v>9.529296916154653</v>
       </c>
       <c r="F11" t="n">
-        <v>1.090375863266841</v>
+        <v>1.733781476870487</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6708867450432885</v>
+        <v>0.2343361085841331</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>5.742227932287379</v>
+        <v>9.499849756817117</v>
       </c>
       <c r="F12" t="n">
-        <v>1.092431543644606</v>
+        <v>1.731048666847584</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6686162871649686</v>
+        <v>0.2367021411265023</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>5.7147652025843</v>
+        <v>9.525651127705164</v>
       </c>
       <c r="F13" t="n">
-        <v>1.089687590363968</v>
+        <v>1.73579260385449</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6702011600472204</v>
+        <v>0.2346290419029369</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>5.574981599411611</v>
+        <v>9.661773719787583</v>
       </c>
       <c r="F14" t="n">
-        <v>1.072605985394613</v>
+        <v>1.723711849993406</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6782680654294266</v>
+        <v>0.2236918075528609</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>5.560187708784155</v>
+        <v>9.665319956967608</v>
       </c>
       <c r="F15" t="n">
-        <v>1.071992450072964</v>
+        <v>1.732887104214528</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6791218201847606</v>
+        <v>0.223406873020646</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>5.558184551317059</v>
+        <v>9.620376603461862</v>
       </c>
       <c r="F16" t="n">
-        <v>1.075229439430128</v>
+        <v>1.738409280039439</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6792374223110897</v>
+        <v>0.2270180001836744</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>5.661047687793844</v>
+        <v>9.861951114293106</v>
       </c>
       <c r="F17" t="n">
-        <v>1.12099812443356</v>
+        <v>1.764887508634871</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6733011953828851</v>
+        <v>0.2076078714346823</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>5.611737244755789</v>
+        <v>9.803022144227004</v>
       </c>
       <c r="F18" t="n">
-        <v>1.117669464459482</v>
+        <v>1.75953435710057</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6761468988081376</v>
+        <v>0.2123427207037244</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>5.601149329265676</v>
+        <v>9.703578916860224</v>
       </c>
       <c r="F19" t="n">
-        <v>1.117436530028769</v>
+        <v>1.762813898051566</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6767579269295692</v>
+        <v>0.2203328262813484</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>5.706130006215242</v>
+        <v>9.50845594215739</v>
       </c>
       <c r="F20" t="n">
-        <v>1.088572866747791</v>
+        <v>1.732545153112407</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6706994968369789</v>
+        <v>0.2360106477859278</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>5.711095125686765</v>
+        <v>9.500862350750998</v>
       </c>
       <c r="F21" t="n">
-        <v>1.089805242474988</v>
+        <v>1.73262482632591</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6704129600180743</v>
+        <v>0.2366207808101369</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>5.717091431368821</v>
+        <v>9.508466165437833</v>
       </c>
       <c r="F22" t="n">
-        <v>1.091451891033298</v>
+        <v>1.733674288314393</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6700669134898547</v>
+        <v>0.2360098263615609</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>5.550125853569663</v>
+        <v>9.663349813922052</v>
       </c>
       <c r="F23" t="n">
-        <v>1.068348550490378</v>
+        <v>1.733194590215343</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6797024893916095</v>
+        <v>0.2235651708892273</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>5.541974102694094</v>
+        <v>9.591707081882296</v>
       </c>
       <c r="F24" t="n">
-        <v>1.070030477352019</v>
+        <v>1.729261980078666</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6801729265639243</v>
+        <v>0.2293215507657146</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>5.552662238972274</v>
+        <v>9.616078774853047</v>
       </c>
       <c r="F25" t="n">
-        <v>1.075583212108777</v>
+        <v>1.744996980839411</v>
       </c>
       <c r="G25" t="n">
-        <v>0.679556114705371</v>
+        <v>0.2273633238949846</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>5.634701259362479</v>
+        <v>9.857946398417514</v>
       </c>
       <c r="F26" t="n">
-        <v>1.117490483636078</v>
+        <v>1.762540254198192</v>
       </c>
       <c r="G26" t="n">
-        <v>0.674821646569512</v>
+        <v>0.2079296440028265</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>5.587060583129133</v>
+        <v>9.747185518932783</v>
       </c>
       <c r="F27" t="n">
-        <v>1.113342585130806</v>
+        <v>1.75975272296495</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6775709878284002</v>
+        <v>0.2168291049755616</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>5.575198925320319</v>
+        <v>9.688587864090525</v>
       </c>
       <c r="F28" t="n">
-        <v>1.11204076194881</v>
+        <v>1.763821181764031</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6782555235611183</v>
+        <v>0.221537333591915</v>
       </c>
     </row>
   </sheetData>
